--- a/data/trans_orig/Q02G_FES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Clase-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.303258028748222</v>
+        <v>0.567336790057606</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.120059347188741</v>
+        <v>1.089521926981911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.332475714514317</v>
+        <v>1.396725320779687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.361261561557517</v>
+        <v>1.317398470483457</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.305403144747912</v>
+        <v>1.288558535732468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.50837970735392</v>
+        <v>1.539703474071708</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.53790400967196</v>
+        <v>2.544452820165927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.726129500205584</v>
+        <v>3.490350394540155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.554237536713782</v>
+        <v>7.624125267521199</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.764232594114875</v>
+        <v>8.077783453243574</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.222604137783502</v>
+        <v>4.69228229973151</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.856229111691118</v>
+        <v>6.20089652294212</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2415909628163266</v>
+        <v>0.3687732783515037</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.965950805632993</v>
+        <v>2.049902219912641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.42782956971943</v>
+        <v>1.298290592061803</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.726259983498652</v>
+        <v>1.821511001759232</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.823932752262733</v>
+        <v>1.787456200484408</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.254185695452941</v>
+        <v>2.27504643454478</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.823539623701408</v>
+        <v>6.417500158594867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.372020798978228</v>
+        <v>6.409697538849423</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.151475210187769</v>
+        <v>5.228165507294577</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.179591832843233</v>
+        <v>6.032978592877524</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.164509693991855</v>
+        <v>1.101589332716775</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.228336723626576</v>
+        <v>1.121602009960179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.783129923750321</v>
+        <v>2.93773902845825</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.396904599347941</v>
+        <v>2.392195932364822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.883190153889284</v>
+        <v>1.844306678970987</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.419764123642965</v>
+        <v>4.406140157056277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.199148270266885</v>
+        <v>3.00257621098161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.601186942843535</v>
+        <v>8.440286918634218</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>16</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.791212490035178</v>
+        <v>5.889263186819027</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.980461417899803</v>
+        <v>5.729061316049504</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.341567680394612</v>
+        <v>3.402907362929258</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.104499964903734</v>
+        <v>3.170605840434903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.69684148724519</v>
+        <v>2.621403618143362</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.603446619903039</v>
+        <v>3.598209801667449</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.026587002072171</v>
+        <v>3.15356214879013</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.871454878911007</v>
+        <v>3.889745710742864</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.76966293886794</v>
+        <v>6.621526419276625</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.681518108252755</v>
+        <v>9.420525614618809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.953458668247654</v>
+        <v>5.029487733176183</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.144553927764459</v>
+        <v>8.437751010382712</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.87338440739741</v>
+        <v>4.917360294670979</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.675088117552688</v>
+        <v>7.66676729154077</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.239754254073786</v>
+        <v>2.177275529444819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.786424051069171</v>
+        <v>2.102824640612398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.375571217457603</v>
+        <v>2.45074976497102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.894548767203258</v>
+        <v>2.867717147892905</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.738611926644055</v>
+        <v>2.757077146811357</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.9756283939489</v>
+        <v>2.965114391773519</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.086606050630907</v>
+        <v>7.226753843697126</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.8433489103368</v>
+        <v>7.397481698565285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.458424874471171</v>
+        <v>4.56733153398344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.055829056483511</v>
+        <v>5.125020500705127</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.82376098909789</v>
+        <v>4.742215799807771</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.995731198040616</v>
+        <v>5.086065633489516</v>
       </c>
     </row>
     <row r="19">
@@ -1045,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.80514921462805</v>
+        <v>2.70268621264996</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.701064166539854</v>
+        <v>2.659938325500208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.647612462210966</v>
+        <v>2.646078328603639</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.797613401697436</v>
+        <v>2.727675458522364</v>
       </c>
     </row>
     <row r="21">
@@ -1069,16 +1069,16 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.305807403472031</v>
+        <v>5.28224765613457</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.375175163979662</v>
+        <v>6.724229214314146</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>4.994912796238525</v>
+        <v>5.111188665538265</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.378334632672895</v>
+        <v>6.18143000211077</v>
       </c>
     </row>
     <row r="22">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.127432058670099</v>
+        <v>3.144127369393581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.279229429875483</v>
+        <v>3.362203132252029</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.055513200643474</v>
+        <v>3.101868908384201</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.387615597096509</v>
+        <v>3.379828147922695</v>
       </c>
     </row>
     <row r="24">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.3409442086861</v>
+        <v>4.32657043181423</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.028296037185807</v>
+        <v>5.073811039351773</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.101313253313178</v>
+        <v>4.104033715726708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.805429160739332</v>
+        <v>4.75425482769397</v>
       </c>
     </row>
     <row r="25">
